--- a/CP02PMCI/Omaha_Cal_Info_CP02PMCI_00002.xlsx
+++ b/CP02PMCI/Omaha_Cal_Info_CP02PMCI_00002.xlsx
@@ -154,6 +154,9 @@
     <t>CP02PMCI-WFP01-03-CTDPFK000</t>
   </si>
   <si>
+    <t>CP02PMCI-WFP01-03-VEL3DK000</t>
+  </si>
+  <si>
     <t>CP02PMCI-WFP01-04-FLORTK000</t>
   </si>
   <si>
@@ -313,31 +316,6 @@
   </si>
   <si>
     <t>CC_scattering_angle</t>
-  </si>
-  <si>
-    <r>
-      <t>CP02PMCI-WFP01-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-VEL3DK000</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1029,7 +1007,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
@@ -1042,16 +1020,16 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="5">
         <v>127</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="14">
@@ -1082,7 +1060,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D45" sqref="D44:D45"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1104,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="16">
         <v>2</v>
@@ -1153,7 +1131,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="16">
         <v>2</v>
@@ -1180,7 +1158,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="16">
         <v>2</v>
@@ -1222,7 +1200,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="16">
         <v>2</v>
@@ -1237,7 +1215,7 @@
         <v>-838.6</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -1251,7 +1229,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="16">
         <v>2</v>
@@ -1278,7 +1256,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="16">
         <v>2</v>
@@ -1305,7 +1283,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="16">
         <v>2</v>
@@ -1320,7 +1298,7 @@
         <v>3.1058000000000002E-4</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -1334,7 +1312,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
@@ -1349,7 +1327,7 @@
         <v>-2.6675000000000002E-3</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -1363,7 +1341,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="16">
         <v>2</v>
@@ -1378,7 +1356,7 @@
         <v>1.5181999999999999E-4</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -1392,7 +1370,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="16">
         <v>2</v>
@@ -1407,7 +1385,7 @@
         <v>-3.1155000000000001E-6</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -1421,7 +1399,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16">
         <v>2</v>
@@ -1436,7 +1414,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -1465,7 +1443,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="16">
         <v>2</v>
@@ -1492,7 +1470,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="16">
         <v>2</v>
@@ -1531,10 +1509,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="16">
         <v>2</v>
@@ -1558,10 +1536,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="16">
         <v>2</v>
@@ -1600,10 +1578,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="16">
         <v>2</v>
@@ -1612,7 +1590,7 @@
         <v>1031</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" s="23">
         <v>1.08</v>
@@ -1629,10 +1607,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="16">
         <v>2</v>
@@ -1647,7 +1625,7 @@
         <v>49</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -1658,10 +1636,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="16">
         <v>2</v>
@@ -1676,7 +1654,7 @@
         <v>51</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
@@ -1687,10 +1665,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="16">
         <v>2</v>
@@ -1705,7 +1683,7 @@
         <v>51</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -1716,10 +1694,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="16">
         <v>2</v>
@@ -1728,7 +1706,7 @@
         <v>1031</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F25" s="23">
         <v>3.9E-2</v>
@@ -1745,10 +1723,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="16">
         <v>2</v>
@@ -1757,7 +1735,7 @@
         <v>1031</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F26" s="23">
         <v>700</v>
@@ -1774,10 +1752,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="16">
         <v>2</v>
@@ -1792,7 +1770,7 @@
         <v>9.0700000000000003E-2</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -1803,10 +1781,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="16">
         <v>2</v>
@@ -1821,7 +1799,7 @@
         <v>1.21E-2</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -1832,10 +1810,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="16">
         <v>2</v>
@@ -1850,7 +1828,7 @@
         <v>3.5300000000000001E-6</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -1861,10 +1839,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="16">
         <v>2</v>
@@ -1873,7 +1851,7 @@
         <v>1031</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="23">
         <v>117</v>
@@ -1905,10 +1883,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="16">
         <v>2</v>
@@ -1923,7 +1901,7 @@
         <v>1.2</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
@@ -1934,10 +1912,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="16">
         <v>2</v>
@@ -1952,7 +1930,7 @@
         <v>1.0000000000000001E-17</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -1978,21 +1956,21 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="16">
         <v>2</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
       <c r="G35" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
@@ -2003,21 +1981,21 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="16">
         <v>2</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
       <c r="G36" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
@@ -2028,16 +2006,16 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="16">
         <v>2</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
@@ -2051,21 +2029,21 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="16">
         <v>2</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>

--- a/CP02PMCI/Omaha_Cal_Info_CP02PMCI_00002.xlsx
+++ b/CP02PMCI/Omaha_Cal_Info_CP02PMCI_00002.xlsx
@@ -154,9 +154,6 @@
     <t>CP02PMCI-WFP01-03-CTDPFK000</t>
   </si>
   <si>
-    <t>CP02PMCI-WFP01-03-VEL3DK000</t>
-  </si>
-  <si>
     <t>CP02PMCI-WFP01-04-FLORTK000</t>
   </si>
   <si>
@@ -316,6 +313,31 @@
   </si>
   <si>
     <t>CC_scattering_angle</t>
+  </si>
+  <si>
+    <r>
+      <t>CP02PMCI-WFP01-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-VEL3DK000</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1007,7 +1029,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
@@ -1020,16 +1042,16 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="I2" s="5">
         <v>127</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="14">
@@ -1060,7 +1082,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D45" sqref="D44:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1126,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="16">
         <v>2</v>
@@ -1131,7 +1153,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="16">
         <v>2</v>
@@ -1158,7 +1180,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="16">
         <v>2</v>
@@ -1200,7 +1222,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="16">
         <v>2</v>
@@ -1215,7 +1237,7 @@
         <v>-838.6</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -1229,7 +1251,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="16">
         <v>2</v>
@@ -1256,7 +1278,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="16">
         <v>2</v>
@@ -1283,7 +1305,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="16">
         <v>2</v>
@@ -1298,7 +1320,7 @@
         <v>3.1058000000000002E-4</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -1312,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="16">
         <v>2</v>
@@ -1327,7 +1349,7 @@
         <v>-2.6675000000000002E-3</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -1341,7 +1363,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="16">
         <v>2</v>
@@ -1356,7 +1378,7 @@
         <v>1.5181999999999999E-4</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -1370,7 +1392,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="16">
         <v>2</v>
@@ -1385,7 +1407,7 @@
         <v>-3.1155000000000001E-6</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -1399,7 +1421,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="16">
         <v>2</v>
@@ -1414,7 +1436,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -1443,7 +1465,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="16">
         <v>2</v>
@@ -1470,7 +1492,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="16">
         <v>2</v>
@@ -1509,10 +1531,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="16">
         <v>2</v>
@@ -1536,10 +1558,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="16">
         <v>2</v>
@@ -1578,10 +1600,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="16">
         <v>2</v>
@@ -1590,7 +1612,7 @@
         <v>1031</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="23">
         <v>1.08</v>
@@ -1607,10 +1629,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="16">
         <v>2</v>
@@ -1625,7 +1647,7 @@
         <v>49</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -1636,10 +1658,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="16">
         <v>2</v>
@@ -1654,7 +1676,7 @@
         <v>51</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
@@ -1665,10 +1687,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="16">
         <v>2</v>
@@ -1683,7 +1705,7 @@
         <v>51</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -1694,10 +1716,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="16">
         <v>2</v>
@@ -1706,7 +1728,7 @@
         <v>1031</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="23">
         <v>3.9E-2</v>
@@ -1723,10 +1745,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="16">
         <v>2</v>
@@ -1735,7 +1757,7 @@
         <v>1031</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="23">
         <v>700</v>
@@ -1752,10 +1774,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="16">
         <v>2</v>
@@ -1770,7 +1792,7 @@
         <v>9.0700000000000003E-2</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -1781,10 +1803,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="16">
         <v>2</v>
@@ -1799,7 +1821,7 @@
         <v>1.21E-2</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -1810,10 +1832,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="16">
         <v>2</v>
@@ -1828,7 +1850,7 @@
         <v>3.5300000000000001E-6</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -1839,10 +1861,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="16">
         <v>2</v>
@@ -1851,7 +1873,7 @@
         <v>1031</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" s="23">
         <v>117</v>
@@ -1883,10 +1905,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="16">
         <v>2</v>
@@ -1901,7 +1923,7 @@
         <v>1.2</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
@@ -1912,10 +1934,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="16">
         <v>2</v>
@@ -1930,7 +1952,7 @@
         <v>1.0000000000000001E-17</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -1956,21 +1978,21 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="16">
         <v>2</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
       <c r="G35" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
@@ -1981,21 +2003,21 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="16">
         <v>2</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
       <c r="G36" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
@@ -2006,16 +2028,16 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="16">
         <v>2</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
@@ -2029,21 +2051,21 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="16">
         <v>2</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>

--- a/CP02PMCI/Omaha_Cal_Info_CP02PMCI_00002.xlsx
+++ b/CP02PMCI/Omaha_Cal_Info_CP02PMCI_00002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377"/>
+    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D45" sqref="D44:D45"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,7 +1615,7 @@
         <v>67</v>
       </c>
       <c r="F21" s="23">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>34</v>
@@ -1876,7 +1876,7 @@
         <v>70</v>
       </c>
       <c r="F30" s="23">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>34</v>
